--- a/数据整理/stocks/港股/01030-新城发展.xlsx
+++ b/数据整理/stocks/港股/01030-新城发展.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.02</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.16</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.02</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.16</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +644,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>20.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>81.71</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.88</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8067</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -632,15 +682,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>92.90</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.10</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -660,15 +720,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>92.90</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.10</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01030-新城发展.xlsx
+++ b/数据整理/stocks/港股/01030-新城发展.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -745,4 +746,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005662</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4536</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005663</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01030-新城发展.xlsx
+++ b/数据整理/stocks/港股/01030-新城发展.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -878,4 +879,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005662</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4434</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005663</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01030-新城发展.xlsx
+++ b/数据整理/stocks/港股/01030-新城发展.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1011,4 +1012,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01030-新城发展.xlsx
+++ b/数据整理/stocks/港股/01030-新城发展.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1020,7 +1021,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,17 +1032,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1051,14 +1072,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.5</v>
+          <t>012671</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1299</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1067,14 +1110,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.52</v>
+          <t>005662</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9427</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1083,14 +1148,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>005663</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2165</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.86</v>
       </c>
     </row>
     <row r="5">
@@ -1099,13 +1186,151 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>012672</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01030-新城发展.xlsx
+++ b/数据整理/stocks/港股/01030-新城发展.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1229,7 +1230,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1240,17 +1241,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1260,14 +1281,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.32</v>
+          <t>005662</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9977</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1276,14 +1319,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.5</v>
+          <t>012671</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7533</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1292,14 +1357,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>005663</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2829</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.52</v>
       </c>
     </row>
     <row r="5">
@@ -1308,14 +1395,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>513690</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1454</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.86</v>
       </c>
     </row>
     <row r="6">
@@ -1324,13 +1433,243 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1369</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012672</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01030-新城发展.xlsx
+++ b/数据整理/stocks/港股/01030-新城发展.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1552,7 +1553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1563,17 +1564,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1583,14 +1604,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.35</v>
+          <t>005662</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0071</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1599,14 +1642,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.32</v>
+          <t>012671</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7303</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1615,14 +1680,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.5</v>
+          <t>005663</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3113</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1631,14 +1718,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.52</v>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1327</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1647,14 +1756,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+          <t>513690</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1174</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.86</v>
       </c>
     </row>
     <row r="7">
@@ -1663,13 +1794,221 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>012672</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01030-新城发展.xlsx
+++ b/数据整理/stocks/港股/01030-新城发展.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>2.34</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>2.35</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.86</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,36 +673,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005662</t>
+          <t>012671</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实金融精选股票A</t>
+          <t>嘉实核心蓝筹混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.51</t>
+          <t>9.20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.72</t>
+          <t>93.58</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10.59</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0071</t>
+          <t>0.3818</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -694,32 +711,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>012671</t>
+          <t>005662</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉实核心蓝筹混合型证券投资基金A</t>
+          <t>嘉实金融精选股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.76</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.16</t>
+          <t>92.37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7303</t>
+          <t>0.3527</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -732,36 +749,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005663</t>
+          <t>007216</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>嘉实金融精选股票C</t>
+          <t>浙商中华预期高股息C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.72</t>
+          <t>88.55</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>10.59</t>
+          <t>7.15</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3113</t>
+          <t>0.3146</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -770,32 +787,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009126</t>
+          <t>005663</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实基础产业优选股票A</t>
+          <t>嘉实金融精选股票C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.50</t>
+          <t>92.37</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.87</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1327</t>
+          <t>0.1856</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -808,36 +825,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>513690</t>
+          <t>007178</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博时恒生港股通高股息率ETF</t>
+          <t>浙商中华预期高股息A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>97.83</t>
+          <t>88.55</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>7.15</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1174</t>
+          <t>0.1852</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -846,36 +863,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>012672</t>
+          <t>014872</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>嘉实核心蓝筹混合型证券投资基金C</t>
+          <t>嘉实品质蓝筹一年持有期混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.16</t>
+          <t>93.17</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0298</t>
+          <t>0.1052</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -884,36 +901,150 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012672</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>009127</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>嘉实基础产业优选股票C</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.87</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0076</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014873</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实品质蓝筹一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -988,26 +1119,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.58</t>
+          <t>9.51</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.89</t>
+          <t>91.72</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.43</t>
+          <t>10.59</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9977</t>
+          <t>1.0071</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1026,26 +1157,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.11</t>
+          <t>11.76</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.27</t>
+          <t>94.16</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.78</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7533</t>
+          <t>0.7303</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1064,26 +1195,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.89</t>
+          <t>91.72</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.43</t>
+          <t>10.59</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2829</t>
+          <t>0.3113</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1092,36 +1223,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>513690</t>
+          <t>009126</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时恒生港股通高股息率ETF</t>
+          <t>嘉实基础产业优选股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>99.64</t>
+          <t>94.50</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>5.87</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1454</t>
+          <t>0.1327</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1130,32 +1261,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009126</t>
+          <t>513690</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>嘉实基础产业优选股票A</t>
+          <t>博时恒生港股通高股息率ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.79</t>
+          <t>97.83</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.31</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1369</t>
+          <t>0.1174</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1178,26 +1309,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.27</t>
+          <t>94.16</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.78</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0319</t>
+          <t>0.0298</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1216,26 +1347,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>90.79</t>
+          <t>94.50</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.31</t>
+          <t>5.87</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0069</t>
+          <t>0.0076</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1244,6 +1375,328 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005662</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9977</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012671</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7533</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005663</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2829</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>513690</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1454</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1369</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012672</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1444,138 +1897,6 @@
       </c>
       <c r="H5" t="n">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005662</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>嘉实金融精选股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>8.61</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.46</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4434</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005663</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>嘉实金融精选股票C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.46</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0582</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1650,26 +1971,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.22</t>
+          <t>8.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.63</t>
+          <t>90.46</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4536</t>
+          <t>0.4434</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1688,26 +2009,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.63</t>
+          <t>90.46</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0649</t>
+          <t>0.0582</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1716,6 +2037,138 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005662</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4536</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005663</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1885,7 +2338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/01030-新城发展.xlsx
+++ b/数据整理/stocks/港股/01030-新城发展.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>2.34</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>2.35</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>0.86</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>2</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -616,7 +633,499 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012671</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6101</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005662</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3313</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005663</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2392</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014872</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实品质蓝筹一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1630</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1328</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012672</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014873</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实品质蓝筹一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1045,328 +1554,6 @@
       </c>
       <c r="H11" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005662</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>嘉实金融精选股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9.51</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.72</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>10.59</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.0071</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>012671</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>嘉实核心蓝筹混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>11.76</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.16</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.21</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.7303</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005663</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>嘉实金融精选股票C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.72</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>10.59</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3113</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009126</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>嘉实基础产业优选股票A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.87</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1327</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>513690</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>博时恒生港股通高股息率ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>97.83</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1174</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>012672</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>嘉实核心蓝筹混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.16</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.21</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0298</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009127</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>嘉实基础产业优选股票C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.87</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0076</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1441,26 +1628,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.58</t>
+          <t>9.51</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.89</t>
+          <t>91.72</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.43</t>
+          <t>10.59</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9977</t>
+          <t>1.0071</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1479,26 +1666,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.11</t>
+          <t>11.76</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.27</t>
+          <t>94.16</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.78</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7533</t>
+          <t>0.7303</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1517,26 +1704,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.89</t>
+          <t>91.72</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.43</t>
+          <t>10.59</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2829</t>
+          <t>0.3113</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1545,36 +1732,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>513690</t>
+          <t>009126</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时恒生港股通高股息率ETF</t>
+          <t>嘉实基础产业优选股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>99.64</t>
+          <t>94.50</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>5.87</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1454</t>
+          <t>0.1327</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1583,32 +1770,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009126</t>
+          <t>513690</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>嘉实基础产业优选股票A</t>
+          <t>博时恒生港股通高股息率ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.79</t>
+          <t>97.83</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.31</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1369</t>
+          <t>0.1174</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1631,26 +1818,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.27</t>
+          <t>94.16</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.78</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0319</t>
+          <t>0.0298</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1669,26 +1856,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>90.79</t>
+          <t>94.50</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.31</t>
+          <t>5.87</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0069</t>
+          <t>0.0076</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1697,6 +1884,328 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005662</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9977</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012671</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7533</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005663</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2829</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>513690</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1454</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1369</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012672</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1897,138 +2406,6 @@
       </c>
       <c r="H5" t="n">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005662</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>嘉实金融精选股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>8.61</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.46</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4434</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005663</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>嘉实金融精选股票C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.46</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0582</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2103,26 +2480,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.22</t>
+          <t>8.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.63</t>
+          <t>90.46</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4536</t>
+          <t>0.4434</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2141,26 +2518,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.63</t>
+          <t>90.46</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0649</t>
+          <t>0.0582</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2169,6 +2546,138 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005662</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4536</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005663</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2336,136 +2845,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>007178</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0218</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007216</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0025</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>